--- a/COMP607/railfence.xlsx
+++ b/COMP607/railfence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Projects\Git\University\COMP607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F54F71F-37D6-4669-9789-C6928D8238D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621A8B07-2C7A-4D58-BE6A-95FC17792D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{77876AA2-7E74-409F-B95E-FDC949DC4591}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="8745" xr2:uid="{77876AA2-7E74-409F-B95E-FDC949DC4591}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
   <si>
     <t>A</t>
   </si>
@@ -84,6 +84,33 @@
   </si>
   <si>
     <t>4 Rows</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Ks</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -98,7 +125,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +150,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -136,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,6 +180,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,15 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A5A667-BCEC-43D2-A7DC-5865EA394477}">
-  <dimension ref="B2:AF15"/>
+  <dimension ref="B2:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="32" width="1.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="24" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="1.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.35">
@@ -874,6 +912,287 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>18</v>
+      </c>
+      <c r="N22">
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>17</v>
+      </c>
+      <c r="S22">
+        <v>22</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>18</v>
+      </c>
+      <c r="V22">
+        <v>19</v>
+      </c>
+      <c r="W22">
+        <v>4</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>16</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>19</v>
+      </c>
+      <c r="R23">
+        <v>14</v>
+      </c>
+      <c r="S23">
+        <v>17</v>
+      </c>
+      <c r="T23">
+        <v>8</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>11</v>
+      </c>
+      <c r="W23">
+        <v>4</v>
+      </c>
+      <c r="X23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>19</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>24</v>
+      </c>
+      <c r="P24">
+        <v>21</v>
+      </c>
+      <c r="Q24">
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>13</v>
+      </c>
+      <c r="T24">
+        <v>8</v>
+      </c>
+      <c r="U24">
+        <v>18</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>8</v>
+      </c>
+      <c r="X24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" t="s">
+        <v>12</v>
+      </c>
+      <c r="U25" t="s">
+        <v>4</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:AF2"/>
